--- a/deuChatbot/research_result/results/sem_score/sem_version_1(3000_400).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_1(3000_400).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6156,61 +6156,3520 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야로 구성되어 있으며, 각 분야는 기초디자인과 사고의 전환 두 가지 종목 중에서 선택하여 응시하게 됩니다. 
+### 디자인조형학과 실기시험 요약
+- **모집단위**: 시각디자인, 산업디자인, 공예디자인
+- **실기종목**: 기초디자인, 사고의 전환 (택1)
+- **종목별 배점(비율)**: 700점 (70%)
+### 각 종목별 세부사항
+#### 기초디자인
+- **준비물**:
+  - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+  - 주제A 예시: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B 예시: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- **화지크기**: 켄트지3절
+- **시간**: 5시간
+#### 사고의 전환
+- **준비물**:
+  - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+  - 주제A 예시: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+  - 주제B 예시: 바이러스, 자유, 여행, 계절, 꿈
+- **화지크기**: 켄트지2절
+- **시간**: 5시간
+### 준비사항 및 유의사항
+- 모든 도구는 개인적으로 지참해야 합니다.
+- 제공된 사물과 이미지는 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오.
+- 제공된 사물의 색상은 변경하지 마시오.
+이러한 세부사항을 참고하여 준비하시면 좋을 것 같습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7973878154158592</v>
+        <v>0.9455515742301941</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과는 시각디자인, 산업디자인, 공예디자인 중에서 선택할 수 있는 실기 종목입니다.
+- **실기종목**: 시각디자인, 산업디자인, 공예디자인
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+  - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간
+이러한 준비물을 가지고 주제를 기반으로 작품을 제작해야 합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7663350045681</v>
+        <v>0.950456976890564</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024년 경기지도학과 모집에서 인정되는 대회들은 다음과 같습니다:
+1. 대한체육회 주관 대회
+- 전국고등학교야구연맹전
+2. 한국스포츠진흥원 주관 대회 
+- 전국고등학교야구대회
+3. 경기도체육회 주관 대회
+- 경기고등학교야구연맹전
+4. 기타 지방체육회 주관 대회
+이러한 대회의 경우, 해당 대회에서 1위를 차지하거나 개인별로 상위권에 진급하여 참가한 경우 지원 자격을 갖출 수 있습니다.
+참고로, 경기지도학과는 실기/실적 전형으로 모집되며, 이와 관련된 실기고사와 함께 이러한 대회 성적이 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.50405353307724</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 선택하여 준비해야 합니다. 당일 추첨을 통해 연결된 주제를 선정하게 됩니다. 제공된 예시 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B: 
+- 콜라병
+- 포카리스웨트(캔)
+- 마스크
+- 시계
+- 맥가이버 칼
+- 바이러스
+- 자유
+- 여행
+- 계절
+- 꿈 
+당신이 선택한 주제A와 주제B를 연결하여 하나의 주제로 발전시켜야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9115817546844482</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>네, 동의대학교 나군 학생부교과(농어촌학생전형)에서는 출결이 반영됩니다. 
+출결은 다음과 같이 반영비율에 포함되어 있습니다:
+- 경기실적 : 70%
+- 학생부 교과성적 : 18% 
+- 출결 : 12%
+따라서 출결 점수가 전체 평가에서 중요한 역할을 합니다. 최대한 좋은 출석 기록을 유지하는 것이 유리합니다.
+추가로, 동점자 처리 시 출결상황도 고려됩니다(나군 실기/실적(경기실적우수자전형) 동점자 처리기준 참조).
+따라fore, 출결 관리는 학생부교과 전형에서 중요한 요소 중 하나로 간주되어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.7069668769836426</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /라는 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8985964059829712</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 / 
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.8246312141418457</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생전형으로 22명을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.766898512840271</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语编写的回答：
+ 수능 영어 등급별 점수는 다음과 같습니다:
+1등급: 139점
+2등급: 131점
+3등급: 123점
+4등급: 115점
+5등급: 107점
+6등급: 99점
+7등급: 91점
+8등급: 83점
+9등급: 75점
+이 점수는 등급에 따라 증가하며, 최고 등급인 1등급은 가장 높은 점수를 받습니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.9019418358802795</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>依据提供的信息，艺术高中毕业生不能申请农村学生专项（农林中学制6年或12年课程）。
+具体来说，在“其他注意事项”部分提到：
+- "農業·水産などの1次産業に従事する者" 被排除在外。
+  - 这意味着从事农业、水产等第一产业的人被排除在外。
+因此，艺术高中毕业生不符合农村学生专项的申请资格。</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.3712621927261353</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저斯ports学和女生成绩等级为4的立定跳远成绩和评分如下：
+- 成绩：218~221 cm
+- 评分：275分
+请注意，这里的单位是厘米（cm），分数是韩国家庭常用的评分方式。</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.3989459276199341</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>到目前为止，提供的信息中没有直接提到东义大学（应该是“동의대학교”的中文翻译）的体育教育学系（경기지도학과）的具体出勤率。但是根据之前的数据，可以得知：
+[표 추가내용]
+```
+ 기타사항 나군 실기/실적(경기실적우수자전형) 학생부 출결상황 반영방법
+0 0	결석일수 / 반영점수
+ 0~2일 / 120 
+ 3~6일 / 90 
+ 7~12일 / 60 
+ 13~20일 / 30 
+ 21일이상 / 0 
+```
+这段信息表明，东义大学的体育教育学系（경기지도학과）在录取过程中会考虑学生的出勤情况，并且给出了具体的评分标准。具体来说：
+- 出勤0到2天：得120分
+- 出勤3到6天：得90分
+- 出勤7到12天：得60分
+- 出勤13到20天：得30分
+- 出勤超过21天：不得分
+所以，东义大学体育教育学系的出勤情况会被考虑，并且有具体的评分标准。但是没有给出一个总的“出勤率”或者百分比。如果你需要更详细的信息，建议直接访问东义大学的官方网站或联系学校获取最新信息。如果您有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.4708315134048462</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+가군 수능(일반학생전형) 모집단위 및 모집인원 표에서 물리치료학과의 모집인원이 4명으로 나타나 있습니다:
+```
+공과대학 / 공학 / 물리치료학과 / 4 /
+```</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.639680027961731</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 실시됩니다. 
+이 정보는 "전형일정" 표에서 확인할 수 있습니다. 해당 표에서는 &lt;나&gt;군 실기고사 레저스포츠학과 태권도학과의 날짜가 2024년 1월 16일(화)로 되어 있지만, 디자인조형학과는 다음 날인 2024년 1월 17일(수)에 실시됩니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.7529225945472717</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과에 대한 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 현재 제공된 표는 전반적인 전형 요소 반영 비율 및 일부 학과의 변경 사항을 포함하고 있지만, 특정 학과별 수능 최저기준은 명시되어 있지 않습니다.
+수능 최저기준에 대한 정보를 얻으려면 다음과 같은 방법이 있습니다:
+1. 동의대학교 입학처 웹사이트를 방문하여 2024학년도 정시모집 안내를 확인합니다.
+2. 해당 학교의 입학규정이나 전형요강을 찾아보세요.
+3. 직접 동의대학교 입학상담 센터에 문의해 보세요.
+현재 제공된 정보로는 특정 학과별 수능 최저기준을 확인할 수 없습니다. 추가적인 정보를 얻으려면 위에서 제시한 방법들을 사용해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.5819736123085022</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로 확인된 것은 다음과 같습니다:
+1. 미래융합대학 / 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 / 부동산자산경역학부 - (부동산투자학, 부동산개발경영학)
+위와 같이 두 개의 신설 학과가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9667195081710815</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 (학생부교과): 70%
+- 면접: 30%
+이 정보는 표 "전형요소 반영비율"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9507207274436951</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에서 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+이 정보는 "가산점" 데이터 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.9226111173629761</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. 국어, 수학(미적분 또는 기하), 영어 등급, 탐구 영역 중 상위 3개 영역을 선택하여 표준점수 및 등급 점수를 합산합니다.
+2. 각 영역별로 25%의 비율로 반영됩니다 (총 100%).
+3. 수학(미적분 또는 기하) 응시자는 수학 취득 표준점수에 10% 가산점을 부여합니다.
+예를 들어, 한 학과에서 국어, 수학, 영어, 탐구 중 상위 3개 영역을 선택하여 각각의 표준점수와 등급 점수를 합산한 후, 이 총합이 가중치에 따라 계산됩니다.
+상세 내용은 '수능성적 반영방법' 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.91283118724823</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사 날짜는 다음과 같습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**입니다.
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)와 체육학과의 실기고사는 **2024. 01. 17.(수)**입니다.
+이 정보는 전형일정 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.8338004350662231</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 제외됩니다. 이들 학과는 가군 수능(일반학생전형)에 포함되어 있으며, 나군에서는 해당 학과를 제외하고 전형이 진행됩니다.
+관련 정보:
+- &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 수능(일반학생전형): 전 모집단위 35,000원
+- &lt;가&gt;군, &lt;나&gt;군 실기/실적(일반학생전형): 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 68,000원</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.8868876695632935</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다. 
+특히, 다군 수능(일반학생전형) 모집단위 및 모집인원 표에서 볼 수 있듯이 모든 모집단위에 대해 수능 성적이 반영되며, 동점자 처리 기준에서도 수능 점수를 기준으로 처리됩니다.
+또한, 수능 전형성적 산출방법 표에서는 다군 수능(일반학생전형)의 경우 "전 모집단위"에 대해 수능 100%가 반영된다고 명시되어 있습니다. 이는 모든 모집단위에서 수능 성적이 최소한의 기준이 되어야 한다는 것을 의미합니다.
+따라서, 다군 전형에서도 수능 최저기준은 적용되며, 해당 학생들의 수능 점수가 합격 여부에 중요한 역할을 합니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8790862560272217</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다. 주요 변경 사항은 다음과 같습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 신설되었거나 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9886218309402466</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 2024년 1월 6일(토) 18시 정각입니다.
+주의사항:
+- 이 시간까지 원서접수 사이트 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 마감 시한까지 원서접수를 완료하지 못한 경우 지원자 본인의 책임이므로 유의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.9377440214157104</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **정시모집군 변경**:
+   - 영어영문학과 (가) → 영어영문학과 (다)
+   - 호텔‧컨벤션경영학과 (나) → 호텔‧컨벤션경영학과 (가)
+   - 로봇자동화공학과 (나) → 로봇자동화공학과 (가)
+   - 토목공학과 (가) → 토목공학과 (나)
+   - 응용화학과 (가) → 응용화학과 (다)
+   - 바이오의약공학과 (다) → 바이오의약공학과 (나)
+   - 제품디자인공학과 (나) → 제품디자인공학과 (가)
+   - 전기공학과 (나) → 전기공학과 (가)
+   - 전자공학과 (나) → 전자공학과 (가)
+2. **전형 신설**:
+   - 학생부종합(평생학습자전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+3. **전형명 및 지원자격 변경**:
+   - 학생부종합(성인학습자전형): 특성화고 등을 졸업한 재직자 → 학생부종합(성인학습자(정원내)전형): 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+이러한 변경사항들은 전반적인 입학전형의 구조와 지원자의 자격 요건을 조정하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.8054314851760864</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 제목 : 가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원]
+...
+[표 내용]
+```
+공과대학 / 공학 / 제품디자인공학과 / 3 /
+공과대학 / 공학 / 화학공학과 - 교직 - 공학 / 43 /
+ICT융합공과대학 / 공학 / 전기공학과 - 교직 / 24 /
+ICT융합공과대학 / 공학 / 전자공학과 - 교직 / 34 /
+```
+[표 제목 : 가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율]
+...
+[표 내용]
+```
+가군 실기/실적 (일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / }
+```
+따라서 가군 실기/실적 전형에서는 실기가 70%, 수능이 30%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.8709812164306641</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래융합대학에 속해 있으며, 평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형 등 다양한 전형으로 모집됩니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9446824193000793</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 디자인조형학과
+2. 체육학과 
+3. 레저스포츠학과
+4. 태권도학과
+이러한 학과들은 가군 일반학생전형에서 실기/실적을 반영하는 모집단위로, 해당 학과를 지원하려면 실기고사를 별도로 치러야 합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9520508646965027</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "경기지도학과"를 지원할 수 있습니다.
+관련 정보는 다음과 같습니다:
+- 모집단위: 경기지도학과
+- 계열: 예체능
+- 모집인원: 배드민턴(남): 3명, 축구(남): 4명
+따라서 실기/실적 위주 전형을 지원하려면 경기지도학과에 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.931013822555542</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 학부는 미래 융합 분야에 초점을 맞추고 있으며, 다양한 삶의 질 향상을 위한 교육과 연구를 수행할 계획입니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.7038461565971375</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 일반학생전형에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신자는 지원이 가능하지만, 지원 자격에 제한이 있습니다.
+특수목적고등학교 출신자의 지원 자격:
+- 지원 가능한 전형: &lt;가&gt;군 수능(일반학생전형), &lt;나&gt;군 수능(일반학생전형)
+- 지원 자격 요건: 특수목적고등학교를 졸업하거나 예정인 학생이어야 합니다.
+하지만, 동의대학교는 특수목적고등학교 출신자에 대해 다음과 같은 제한을 두고 있습니다:
+1. 농어촌학생전형, 성인학습자전형 등 일부 전형에서는 지원 자격에서 제외됩니다.
+2. 일반고등학교와 마이스터고, 특성화고등학교 출신자와 동일한 지원 자격을 갖추어야 합니다.
+따라서, 특수목적고등학교 학생으로서 일반학생전형에 지원하려면:
+- 해당하는 전형(가군 수능, 나군 수능)에서 지원 가능합니다.
+- 일반고등학교와 동일한 지원 자격을 갖추어야 합니다.
+따라서, 특수목적고등학교 학생으로서 동의대학교 일반학생전형에 지원이 가능하지만, 특정 전형에서는 제한이 있을 수 있으므로, 정확한 자격 요건과 지원 가능한 전형을 확인하시기 바랍니다. 더 자세한 정보는 동의대학교 입학처 웹사이트를 참조하거나 합격자 안내 센터에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.5861949920654297</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집 인원을 확인해야 합니다. 제공된 정보 중에서 나군 정원 내 모집인원이 가장 많은 학과를 찾아보겠습니다.
+주요 내용을 분석한 결과, 나군 정원 내 모집인원이 가장 많은 학과는 다음과 같습니다:
+1. 경영학과 (15명)
+2. 회계학과 (21명)
+다음으로는 13명씩 모집하는 학과들이 몇 개 있습니다.
+따라서, 나군에서 가장 많이 모집하는 학과는 **회계학과**로 21명을 모집하며, 경영학과도 많은 인원(15명)을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9231234788894653</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你在申请时需要满足以下条件：
+1. **6年课程**：
+   - 在农村（乡、镇）地区的中学和高中期间，你本人及父母双方（如果父母一方已故或离婚，则不包括该方）都居住在农村地区。
+2. **12年课程**：
+   - 无论父母的居住地如何，你在整个初等教育阶段（小学入学日到高中毕业日之间）和中等教育阶段（初中入学日到高中毕业日之间）都在农村地区的学校就读并居住。
+根据提供的信息，如果你是特殊目的高中（如科学高中、国际高中、外语高中、体育高中或艺术高中）的学生，则不符合农村学生的资格。因此，你不能通过学生部教科（农渔村学生类型）申请东国大学。
+建议你可以查看其他类型的入学考试和招生计划，或者咨询学校的招生办公室以获取更多信息。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.4082746803760529</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적 정보는 제공된 데이터에서 찾을 수 없습니다. 주어진 표들은 다양한 모집단위와 관련된 성적 정보를 포함하고 있지만, 특정한 소프트웨어공학부의 합격자 평균 성적은 포함되어 있지 않습니다.
+가장 가까운 관련 정보는 ICT융합공과대학 소프트웨어공학부의 데이터입니다:
+- **국어 표준점수**: 317.87
+- **수학 표준점수**: 317.87
+- **영어 등급 점수**: 3.77
+- **탐구 표준점수**: 4.49
+이 정보를 통해 소프트웨어공학부 합격자의 대략적인 성적 범위를 추정할 수 있지만, 정확한 평균은 제공되지 않았습니다.
+만약 이 정보가 도움이 되지 않거나 더 구체적인 데이터가 필요하다면, 입학처나 관련 홈페이지에서 직접 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.8471407890319824</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: {330.11 / 9.08}
+따라서, 소프트웨어공학부 최초합격자의 평균 성적은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.7866143584251404</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 동시모집 합격자 발표 및 등록금 납부 일정은 다음과 같습니다:
+1. **최초합격자 발표**
+   - **일시**: 2024년 2월 2일 (금) 14:00
+   - **방법**: 입학안내 홈페이지에서 개별 조회
+2. **최초합격자 등록**
+   - **기간**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - **시간**: 은행 마감 시간 내
+   - **방법**: 학교 지정은행에서 등록금 납부
+3. **충원합격자 발표**
+   - **1차 충원합격자 발표**: 2024년 2월 14일 (수) 09:00
+   - **2차 충원합격자 발표**: 2024년 2월 15일 (목) 09:00
+4. **충원합격자 등록**
+   - **1차 충원합격자 등록**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+   - **2차 충원합격자 등록**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+5. **3차 이후 충원합격자 발표 및 등록**
+   - **발표**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+   - **등록**: 개별 전화 통보 시 안내
+모든 지원자는 합격자 발표일에 합격 여부를 반드시 확인해야 하며, 지정 기간 내 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.950918436050415</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접은 각 모집단위별로 개별적으로 진행되며, 대략 다음과 같은 일정에 이루어집니다:
+- **대기실 입실**: 면접 당일 지정된 시간에 대기실에 도착합니다.
+- **신분 확인**: 대기실에서 신분을 확인받습니다.
+- **고사장 앞 이동**: 신분 확인 후 고사장으로 이동합니다.
+- **고사장 입실**: 고사장에 들어가면 면접이 시작됩니다.
+면접은 1인당 약 10분 내외로 진행되며, 면접위원 2~3명이 평가를 합니다. 
+具体的来说，面试安排如下：
+- **候考室入场**：在指定时间到达候考室。
+- **身份确认**：在候考室进行身份验证。
+- **前往考场**：通过身份验证后前往考场。
+- **进入考场**：到达考场开始面试。
+每次面试大约10分钟以内，由2到3名面试官进行评估。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7592074275016785</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>从提供的信息中，我没有找到关于韩医专业（한의예과）的具体最低入学标准。但是，根据一般情况和韩国大学的入学要求，可以推测一些可能的标准：
+1. 高中毕业或同等学历：通常需要高中毕业证书。
+2. 数学基础：由于韩医专业涉及一定的科学知识，特别是数学和统计学，因此可能需要满足一定的数学成绩要求。
+3. 身体健康状况：部分医学相关专业可能会有体检要求。
+4. 其他特定要求：某些大学或课程可能有额外的要求，如面试、推荐信等。
+为了获得最准确的信息，请直接访问东国大学（동의대학교）的官方网站或联系招生办公室。他们可以提供最新的和详细的具体入学要求。如果您需要进一步的帮助来查找相关信息，也可以告诉我。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.2931978106498718</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到2024年招生中的具体最低录取标准（수능 최저학력 기준）。但是根据给定的信息，我们可以推断出一些关于不同专业和类型的考试的评分方式。
+对于一般学生类型（가군, 나군, 다군）的不同专业，其评分方式如下：
+1. **가군 수능(일반학생전형)**:
+   - 除乐体育学部、跆拳道学部外的所有专业：所有科目均按百分比计算总分。
+     - { 100% / }
+2. **나군 실기/실적(일반학생전형)**：
+   - 勺体育学部和跆拳道学部：实绩30%，技能70%。
+3. **다군 수능(일般学生型)**
+   - 所有专业均按100%的百分比计算总分。
+     - { 100% / }
+4. 对于一些特定的专业，如韩医学部（한의예과），根据参加的科目不同有不同的加权：
+   - 韩医学部(数学&lt;微积分/几何&gt;)：所有科目均按百分比计算总分。
+     - { 100% / }
+   - 韩医学部(数学&lt;概率与统计&gt;)：所有科目均按百分比计算总分，但没有加权。
+5. 对于一些特定的类型（如学生综合型），其评分方式可能有所不同。例如：
+   - 学生综合型(조기취업형 계약학과 전형)：主要依据学生成绩、面试和申请材料。
+     - 详细信息需要查看相关表格或说明。
+因此，虽然没有直接提到最低录取标准（수능 최저학력 기준），但可以推断出不同专业有不同的评分方式。对于具体的最低录取分数要求，建议参考学校官网发布的最新招生简章或者联系学校的招生办公室获取最准确的信息。
+如果您需要更详细的信息，建议访问[东国大学入学信息网站](http://ipsi.deu.ac.kr/main.do)或直接咨询学校招生办公室以获得最新的最低录取标准（수능 최저학력 기준）和其他相关要求。</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.5221092104911804</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 일정에 따르면, 충원합격자는 다음과 같은 시기에 발표됩니다:
+1. 최초 합격자 발표 이후:
+   - 2024년 2월 14일(수) 09:00: 1차 충원 합격자 발표
+   - 2024년 2월 15일(목) 09:00: 2차 충원 합격자 발표
+2. 이외에도 추가적으로:
+   - 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지: 3차 이후 충원 합격자 발표 (개별 전화 통보)
+이러한 시기에 홈페이지를 통해 개별적으로 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.9730044007301331</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자는 개별 전화 통보 방식으로 발표됩니다. 일정은 다음과 같습니다:
+- **발표 시간**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지
+- **방식**: 홈페이지에서 개별 조회 가능
+이 발표는 홈페이지를 통해 이루어지며, 지원자는 이 기간 내에 자신의 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.9475106000900269</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>从提供的信息来看，并没有直接提到是否有追加招生（추가모집）的内容。为了确认是否有关于追加招生的具体安排，建议查看最新的招生公告或联系学校招生办公室以获取最准确的信息。如果有新的招生计划或政策变更，学校通常会在其官方网站或其他官方渠道发布通知。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.4052342176437378</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 주로 고등학교 졸업(예정) 자 또는 법령에 의한 동등학력 소지자를 대상으로 하는 입학 전형입니다. 이 전형의 특징과 지원 자격, 평가 요소 등을 다음과 같이 정리해볼 수 있습니다:
+1. **지원 자격**:
+   - 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 일부 경우, 특정 교육과정을 이수한 학생도 지원할 수 있습니다 (예: 직업교육훈련기관에서의 1년 이상의 직업교육훈련 과정)
+2. **모집 단위 및 인원**:
+   - 미래융합대학 / 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) : 11명
+   - 미래융합대학 / 부동산자산경영학부 (부동산투자학, 부동산개발경영학) : 
+     - 학생부종합(성인학습자 정원외)전형: 23명
+     - 학생부종합(성인학습자 정원내)전형: 7명
+     - 학생부종합(재직자)전형: 7명
+3. **전형요소 반영비율**:
+   - 서류 평가와 면접 평가를 통해 총점이 결정되며, 각각의 비중은 대략 70% : 30%로 설정되어 있습니다.
+4. **평가 요소**:
+   - 학업역량: 고교(또는 직장) 생활 중 학업에 대한 어려움과 해결 방안 등
+   - 전공적합성: 지원하는 전공이나 계열에 대한 관심과 이해, 관련 활동 및 경험
+5. **제출서류**:
+   - 고등학교 학교생활기록부 (온라인 제공 동의자가 제외되는 경우)
+   - 검정고시 합격증서와 성적증명서
+   - 외국고등학교 졸업자에게는 공증받은 졸업증명서와 성적증명서 등
+6. **평가 기준**:
+   - 공동체역량: 협업능력, 학교폭력 여부 등을 평가
+   - 학업역량: 학업태도, 학업성취 등
+   - 전공적합성: 지원하는 전공과 관련된 활동 및 경험
+7. **면접평가**:
+   - 개별 면접으로 진행되며, 지원 동기와 학업계획, 학업역량, 전공적합성 등을 평가합니다.
+8. **최종 등록자 추가 제출서류** (고교 졸업예정자는 필요):
+   - 고교 졸업증명서
+이러한 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 확인하시려면 공식 입학 홈페이지나 관련 문서를 참조하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.8207529187202454</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이러한 조건을 만족하는 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.8950456976890564</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 학과의 입학관리팀으로 제출해야 합니다. 
+특히, 레저스포츠학과와 태권도학과의 경우 다음과 같이 진행됩니다:
+- **레저스포츠학과**:
+  - 제자리 멀리뛰기
+  - Z-런
+- **태권도학과**:
+  - 품새 (200점)
+  - 시범 (500점) 
+  - 겨루기 (500점)
+각 실기종목은 백색 도복을 착용하고, 태권도화는 착용 금지입니다. 
+제출 절차:
+- 우편발송용 표지를 출력하여 봉투에 부착
+- 제출서류를 송부
+具体的来说，实操考试需要提交到相应的系办公室。特别是休闲体育学和跆拳道学专业：
+- 休闲体育学：
+  - 原地跳远（350分）
+  - Z跑（350分）
+- 跆拳道学：
+  - 形势展示（200分）
+  - 演示（500分） 
+  - 对抗赛（500分）
+每个项目都需要穿着白色道服，不允许穿跆拳道鞋，并且不能在鞋子底部粘附任何物质。考试当天因受伤或其他原因弃权的考生将获得最低分数。
+提交流程：
+- 打印邮寄标签并贴在信封上
+- 将实操试卷寄送
+希望这些信息对你有帮助！如果还有其他问题，请随时告诉我。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.5056301951408386</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. 운동복 및 운동화를 착용해야 합니다.
+   - 스파이크, 축구화 등 특수화는 불가능합니다.
+   - 신발바닥에 이물질 가착을 금지합니다.
+2. 실기 당일 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여됩니다.
+3. 각 실기종목별 2회 반칙자에게는 최저점수를 부여됩니다.
+따라서, 체육학과의 실기고사는 학교에서 실시되는 것으로 보입니다. 정확한 장소는 전형 안내에 따르거나 입학관리팀으로부터 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.6158642768859863</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형 일정에 따르면, 충원합격자 발표 시점은 다음과 같습니다:
+- 최초 합격자 발표: 2024. 02. 02.(금) 14:00
+- 1차 충원 합격자 발표: 2024. 02. 14.(수) 09:00
+- 2차 충원 합격자 발표: 2024. 02. 15.(목) 09:00
+이러한 시점에서 학교는 별도의 전화 통보를 하지는 않습니다. 모든 지원자는 홈페이지를 통해 자신의 합격 여부를 확인해야 합니다.
+만약 3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 학교는 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주할 수 있습니다.
+따라서 지원자는 홈페이지를 통해 정기적으로 합격 여부를 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.7125409245491028</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접 확인할 수 없습니다. 하지만, 2024학년도 경찰행정학과의 모집인원 및 지원자 수 등의 정보를 볼 수 있습니다.
+2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원자는 총 29명으로, 경쟁률이 약 4.14입니다. 최종 합격자는 7명으로, 이 중 7명이 충원 합격자였습니다.
+만약 2023학년도의 정확한 수시모집 결과를 알고 싶으시다면, 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해보시는 것이 가장 정확할 것입니다. 해당 사이트에서는 각 학과별 수시모집 결과가 공식 발표될 때마다 업데이트됩니다.
+더 자세한 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.8082704544067383</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 내용을 기반으로, 정시 모집에서 수능을 응시하지 않고도 지원 가능한 전형은 다음과 같습니다:
+1. **학생부종합전형**
+   - **나군 학생부교과(농어촌학생전형)**
+   - **나군 학생부교과(평생학습자전형)**
+   - **나군 학생부교과(성인학습자(정원내)전형)**
+   - **나군 학생부종합(재직자전형)**
+2. **실기/실적 위주 전형**
+   - **가군 실기/실적(일반학생전형)**
+   - **나군 실기/실적(일반학생전형)**
+이러한 전형들은 수능 점수 대신 학생부 성적, 출결 등 다른 요소를 주요하게 반영합니다. 따라서 수능을 응시하지 않아도 지원 가능합니다.
+단, 각 전형별로 세부적인 요구사항이 있으므로, 해당 전형의 자세한 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.6553446054458618</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>一般来说，高中毕业后超过10年再申请大学是比较困难的。大多数大学的招生政策要求申请人是在近期内（通常是过去几年内）完成高中学业的学生。
+不过，您提到的是特定类型的招生计划“农渔村学生专项”，这可能有一些特殊规定。根据提供的信息：
+- 农渔村学生专项 (Nongyu Cun Student Special Program) 是针对在农村或偏远地区就读并居住过的高中生设立的。
+- 该计划要求申请人在高中阶段（从初中入学到高中毕业）至少有一年是在农渔村地区的学校就读和生活。
+如果您符合这些条件，即使您已经高中毕业后10年了，仍然有可能通过这个专项计划进行申请。建议详细查看具体的招生简章或直接联系学校获取最新信息。
+如果不符合上述条件，则需要查看其他类型的招生计划是否允许您这样的情况申请。如果有疑问，最好咨询学校的招生办公室以获得准确的信息。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.3320401310920715</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 6일 (토)
+   - 마감시간: 18시
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+2. **서류제출**:
+   - 기간: 2024년 1월 3일 (수) ~ 12일 (금)
+   - 마감시간: 17시
+   - 서류 제출 대상자만 제출해야 함
+3. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+4. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 2024년 1월 17일 (수)
+   - 체육학과: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화)
+   - 충원 합격자 발표 및 등록:
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+     - 3차 이후: 2024년 2월 15일 (목) 19시 ~ 20일 (화) 18시
+이 일정은 동의대학교 정시 모집에서 중요한 기준이며, 지원자는 이에 맞춰 원서접수와 서류제출 등을 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9752405881881714</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024. 01. 02.(화)
+   - 입학안내 홈페이지에서 공고
+2. **원서접수 (인터넷)**: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 서류 제출 대상: 특정 모집단위에 따라 다름 (전형별 세부 안내 참조 필요)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**: 2024. 01. 16.(화) (레저스포츠학과, 태권도학과만)
+   - 대기실 및 입실시간 안내: 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**: 2024. 01. 17.(수) (디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과)
+   - 대기실 및 입실시간 안내: 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024. 02. 02.(금) 14:00
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 발표 및 등록: 2024. 02. 14.(수) ~ 2024. 02. 20.(화)
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+7. **합격자 발표 및 등록금 납부**:
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+   - 충원 합격자 3차 이후 발표 (개별 전화 통보): 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행 (등록금 고지서에 기재)
+이 일정을 준수하여 원서접수와 서류 제출 등을 진행해야 합니다. 또한 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 우리대학 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9546834230422974</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능을 미응시한 학생도 지원할 수 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)** - 이 전형에서는 수능이 반영되지 않으며, 주로 평생학습자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+2. **학생부종합(성인학습자(정원내)전형)** - 이 전형에서도 수능은 반영되지 않고, 고교 졸업(예정)자 또는 법령에 의한 동등 학력을 가진 만 30세 이상의 성인을 대상으로 합니다.
+따라서 수능 미응시자도 지원이 가능한 두 가지 전형이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6121973991394043</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년 모집 정보로 기재된 전자공학과의 충원 합격 정보는 최대 36명까지 이루어졌습니다. 하지만 전년도의 정확한 충원 합격 차수에 대한 정보는 주어진 데이터에서 확인할 수 없습니다. 제공된 정보만으로는 전년도 전자공학과의 충원 합격 차수를 파악하기 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.5871129631996155</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 연락처 번호는 "(주)유웨이어플라이 : 1588-8988"입니다. 그러나 직접 동의대학교 입학처에 문의하는 것이 가장 정확한 답변을 얻는 방법일 것입니다. 공식 홈페이지나 전화번호를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.6530372500419617</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보에서 전화 통화가 되지 않는 경우, 해당 지원자는 다음과 같은 조치를 받게 됩니다:
+1. 충원합격이 되었으나 등록 의사가 없는 것으로 간주됩니다.
+2. 이는 등록 포기자로 간주되므로, 학교에서는 추가로 충원합격자를 선발하기 위해 예비후보 순위를 참고하게 됩니다.
+따라서 지원자는 3차 이후 충원합격자 발표 기간(2024년 2월 15일(목) ~ 2024년 2월 20일(화))에 전화 통화를 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9542387127876282</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형 지원을 위한 주요 서류는 다음과 같습니다:
+### 6년 과정 (농어촌(읍∙면)지역 소재 중·고등학교에서 전 교육과정을 이수한 자)
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 12년 과정 (부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자)
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 추가 제출서류 (최종 등록자에게만 요청)
+- 6년 과정: 고교 졸업증명서, 지원자 본인, 부모 각 초본 1부 (총 3부)
+- 12년 과정: 고교 졸업증명서, 지원자 본인 초본 1부
+이러한 서류들은 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한해 제출해야 합니다.
+추가로, 지원자의 거주지와 부모의 거주지는 동일하지 않아도 되며, 재학기간과 거주기간은 연속된 연수만을 인정합니다. 최종 등록자 중 고교 졸업예정자는 졸업 이후에 추가 제출서류를 제출해야 합니다.
+제출 서류 미제출자는 불합격 처리될 수 있으므로 반드시 확인하고 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9260579347610474</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부 
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 부모가 사망하거나 이혼한 경우에 해당하는 서류도 제출해야 합니다:
+- 부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부(기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)
+- 부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+제출 기간은 2024년 1월 3일(수) ~ 1월 12일(금) 17:00까지 도착분에 한하며, 제출 장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀입니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9445697665214539</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 정시모집에서는 저소득 기회균등 전형을 실시하지 않습니다. 따라서 정시모집에서 저소득 기회균등 전형으로 학생들을 선발하지는 않습니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.5199613571166992</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>一般来说，如果两个科目中的等第平均值是2.5，则通常会进行四舍五入处理。具体来说：
+1. 在韩国的大学入学考试（수능）中，各科目的等级通常是按照整数来表示的。
+2. 如果两个科目成绩的平均分是2.5，一般情况下会向上取整到3等。
+因此，在这种情况下，如果两个科目中的等第平均值是2.5，则会被视为3等。具体处理方式可能会因大学而略有不同，但大多数情况下都会进行四舍五入处理。
+建议您查看具体的招生简章或直接咨询东国大学的招生办公室以确认他们的具体规定。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.5135573148727417</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동기의 정시 모집에서는 나군 학생부종합(조기취업형계약학과전형)을 제외하고는 최초 합격자와 1차, 2차 충원 합격자를 발표합니다. 
+따라서 정시 충원 합격자는 총 3차까지 발표됩니다:
+1. 최초 합격자 발표 (2024년 2월 2일)
+2. 1차 충원 합격자 발표 (2024년 2월 14일) 
+3. 2차 충원 합격자 발표 (2024년 2월 15일)
+이후에는 3차 이후의 충원 합격자를 위한 발표가 있습니다만, 이는 개별 전화 통보 형태로 이루어집니다.
+따라서 정시 모집에서의 충원 합격자는 총 3차까지 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.7332034111022949</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看e비즈니스학과（电子商务学部）的相关信息。根据提供的表格内容，“나군 수능(일반학생전형) 모집단위 및 모집인원” 表中可以看到：
+- e비즈니스학과 的招生人数是10人。
+- 该专业的综合评价领域中的共同体能力部分的满分是240分。
+另外，从“나군 수능(일반학생전형) 전형요소 반영비율” 表中可以看到：
+- e비즈니스学部的综合评价领域的评分比例为：国语（标准分数）+ 数学（标准分数）+ 英语（等级对应的分数）+ 探索（2个科目合计的标准分数）= 100%。
+根据“나군 수능(일반학생전형) 최종등록자” 表中的数据，我们可以看到e비즈尼斯学部的最低录取分数线。但是具体到4.6这个分数是否可以被额外录取，我们需要知道该专业的最低录取分数线是多少。
+假设我们没有具体的最低分数线信息，仅凭给定的信息，无法直接判断一个国语成绩为4.6的学生能否通过附加录取进入e비즈尼斯学部。通常情况下，如果学生的综合评价得分加上其他因素（如面试、实操等）能够达到或超过该专业的最低录取线，则有可能被额外录取。
+建议查看具体的最低录取分数线或者直接咨询学校招生办公室以获取准确信息。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.7002838850021362</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. e비즈니스学科的录取标准。
+2. 你的成绩（尤其是科目等级）是否符合该学科的要求。
+3. 当年申请的人数和竞争情况。
+根据提供的信息，“e비즈尼斯学과”的相关信息如下：
+- 招生人数：89人
+- 最低录取分数：308.58分
+- 通过学生部综合评定的最低等级平均值：4.53
+你的成绩是数学5.3，这在科目等级中属于较好的水平。但是，仅凭这个信息还不足以判断你是否有可能被录取。
+关键因素是你其他科目的成绩以及整体学业表现。如果其他科目（尤其是语数外）的成绩也很好，并且你在学生部综合评定中有不错的表现，那么你的录取可能性会增加。
+此外，还需要考虑当年申请该专业的总人数和竞争情况。由于每年的情况可能不同，具体能否被录取还需参考当年的实际招生情况。
+综上所述，在没有更多详细信息的情况下，仅凭数学5.3的成绩来看，你有可能被e비즈尼斯学과录取，但不能确定。建议详细了解其他科目的成绩以及整体学业表现，并关注当年的具体招生情况。</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.6066170930862427</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关的信息。根据您提供的信息，我将从以下几个方面进行分析：
+1. **成绩情况**：请提供您的国语、数学和英语的分数。
+2. **科目选择**：确认您是否选择了所有必要的科目（如社会、科学等）。
+3. **排名情况**：了解您在同届考生中的排名。
+假设您提供的信息如下：
+- 国语: 104
+- 数学(微积分): 108
+- 英语: 4 等级
+根据您的成绩，我们可以进行以下分析：
+### 成绩分析
+- **国语 (104)**：标准分。
+- **数学 (108)**：标准分。
+- **英语 (4等级)：** 标准分为91。
+#### 总分计算：
+\[ \text{总分} = 104 + 108 + 91 = 303 \]
+### 参考往年数据
+根据您提供的成绩，我们可以参考以下信息：
+- **多军（一般学生型）**：国语、数学和英语的总分为303。
+- 根据以往的数据，多军（一般学生型）的录取分数线通常在280分左右。
+### 结论
+从您的成绩来看，303分已经超过了往年多军（一般学生型）的录取分数线。因此，在没有其他特殊情况的情况下，您应该有较高的机会被预录取。
+但是，最终是否能预录取还需要考虑以下几个因素：
+1. **科目选择**：确保选择了所有必要的科目。
+2. **排名情况**：了解自己在同届考生中的具体排名。
+3. **其他因素**：如面试表现、个人陈述等。
+建议您仔细核对自己的申请材料，并保持与学校招生办公室的沟通，以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.4012423157691956</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분한지 확정적으로 말하기는 어렵지만, 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. 동의대학교 간호학과의 수능 최저 학점 기준:
+   - 2023년도에는 국어 4.58, 수학(미적분) 4.67, 영어 4.92였습니다.
+   - 이는 현재 성적이 상당히 낮은 편입니다.
+2. 전형 유형:
+   - 간호학과는 주로 실기/실적 위주로 모집되는 경향이 있습니다.
+   - 수능 점수보다 실기 성적이나 기타 평가 요소가 더 중요할 수 있습니다.
+3. 학생부 및 면접 등 다른 평가 요인:
+   - 수능 외에 학생부, 면접 등의 성적이 높다면 합격 가능성은 있을 수 있습니다.
+   - 특히 간호사로서 필요한 실무 능력이나 태도 등을 잘 보여주면 유리할 수 있습니다.
+4. 경쟁률:
+   - 모집인원과 지원자 수를 고려하면 경쟁률이 높을 가능성이 큽니다.
+결론적으로, 현재 성적만으로는 합격하기 어렵다고 볼 수 있지만, 실기 및 기타 평가 요소에서 우수한 성적을 보여주면 합격 가능성은 열려 있습니다. 추가적인 준비와 노력이 필요할 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7798757553100586</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 입학사정을 고려해보겠습니다.
+1. **수능 성적 평균 및 표준 편차**: 
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 489.72
+   - 영어 등급: 1.86
+   - 수능 4개 영역 등급: 3.12
+2. **최종합격자 성적 분포**:
+   - 최종합격자의 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합은 489.72로, 평균이 상당히 높습니다.
+   - 영어 등급도 1.86으로 낮지 않습니다.
+3. **성적 비교**:
+   - 정시 성적이 2.52라면, 이는 수능 4개 영역 중 가장 낮은 점수를 의미합니다.
+   - 간호학과의 최종합격자들의 평균 등급이 3.12로, 2.52보다 높습니다.
+따라서, 정시 성적이 2.52라면 동의대학교 간호학과에 최종 합격하기는 어렵다고 볼 수 있습니다. 하지만 입학사정에서 다양한 요소가 고려되므로, 다음과 같은 방법을 통해 기회를 높일 수 있습니다:
+1. **면접 성적**: 면접 점수가 높다면 이점이 될 수 있습니다.
+2. **추천서 및 자기소개서**: 강력한 추천서와 잘 작성된 자기소개서가 도움이 될 수 있습니다.
+3. **기타 활동**: 관련 활동이나 프로젝트, 자원봉사 등이 있다면 이를 제출하면 좋습니다.
+결론적으로, 정시 성적이 2.52라면 간호학과에 최종 합격하기는 어렵지만, 입학사정에서의 다양한 요소를 잘 활용한다면 기회를 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7848320007324219</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7이라는 성적은 간호학과에서 보통 충분한 점수일 것입니다. 그러나 정확하게 합격 가능성을 판단하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **모집인원 및 지원자 수**: 각 모집단위별로 모집 인원이 다르므로, 지원자가 얼마나 많은지 확인해야 합니다.
+2. **전형방법**: 간호학과의 정시 전형 방식을 파악해야 합니다. 서류평가와 면접 등 다양한 요소가 포함될 수 있습니다.
+3. **성적 외 평가 기준**: 일부 학교에서는 성적이 아닌 다른 요인(예: 자질, 동기부여 등)을 중요하게 고려하기도 합니다.
+4. **최저합격 점수**: 이전 연도의 최저합격 점수를 참조하면 도움이 될 수 있습니다.
+5. **학교별 차이**: 각 대학마다 합격 기준이 다를 수 있으므로, 동의대학교 간호학과의 경우에 맞는 정보를 확인해야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 간호학과의 정시 전형 방식과 최근 몇 년간의 합격 기준 등을 확인하시기 바랍니다. 이를 통해 더 구체적인 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6369022130966187</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 국어 + 수학 + 탐구(2개) 표준 변환 점수 평균은 357.63점입니다 (표에서 확인 가능). 
+당신이 가진 성적인 2.58점은 표준 변환 점수가 아니라 등급 점수로 보이네요. 수능 영어 등급의 경우 다음과 같이 변환됩니다:
+- 1등급: 139점
+- 2등급: 131점 
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점
+2.58은 약 4등급에 해당합니다 (평균 점수가 115점인 4등급). 
+간호학과의 영어 등급 평균은 3.12로 보이므로, 당신의 영어 성적이 간호학과의 평균보다 낮습니다.
+하지만 합격 여부는 단순히 점수만으로 판단할 수 없습니다. 탐구 과목 선택, 다른 전형 요소(면접 등)도 고려됩니다. 
+결론적으로, 현재 정보로는 정시로 간호학과에 합격하기 어렵다고 보이지만, 최종 합격 여부는 입학사정관의 심사를 통해 결정되므로 확실한 답변을 드리기는 어렵습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7271140813827515</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学系(游戏工学科)录取，我们需要查看一些关键信息：
+1. **招生人数**：游戏学系的招生名额是多少？
+2. **申请人数**：有多少人申请了这个游戏学系？
+3. **竞争比**：您的预估分数和该专业的平均分、标准差等信息。
+根据您提供的数据表中的“最终注册者”部分，我们可以看到：
+- 游戏工学科的招生名额是40个。
+- 有16人申请了这个游戏学系。
+- 竞争比为5.33（即每个名额有5.33个人竞争）。
+从这些信息来看，游戏工学科的竞争非常激烈。您的预估分数需要非常高才能有机会被录取。
+建议您：
+1. 查看自己的成绩是否接近或超过该专业的平均分。
+2. 考虑是否有其他备选专业或者学校。
+3. 保持与学校的联系，了解最新的招生信息和政策。
+如果您有具体的分数数据或其他相关信息，请提供给我，我可以帮助进一步分析。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.4484739899635315</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 수능 등급으로 보이는데, 이 점수로 동의대학교 게임공학과를 정시 전형으로 지원하는 경우 다음과 같은 요인들을 고려해야 합니다:
+1. 게임공학과의 수능 최저 기준:
+   - 2024년 현재 정보로는 게임공학과의 수능 최저기준이 표에 명시되어 있지 않습니다.
+2. 전형별 수능 점수 반영 비율:
+   - 게임공학과의 경우, 전형요소 반영비율은 { 309.12 /  8.27 / }로 보입니다.
+   - 이는 수능 점수가 전체 성적 중 약 8%만 반영되는 것을 의미합니다.
+3. 다른 요인:
+   - 학생부, 면접 등 다른 전형요소의 중요성이 높습니다.
+   - 지원자의 개인적인 특성과 경쟁률도 중요한 영향을 미칩니다.
+4. 예상치:
+   - 4.16등급은 약 80점대 중반 정도의 점수를 의미합니다.
+   - 이는 게임공학과의 수능 최저기준보다 낮을 가능성이 높습니다.
+5. 결론:
+   - 정확한 합격 확률이나 추가 지원 횟수를 예측하기 위해서는 게임공학과의 정시 모집인원, 경쟁률 등 추가 정보가 필요합니다.
+   - 4.16등급으로 단순히 정시로 합격할 수 있을지는 불확실하며, 다른 전형을 고려하는 것이 좋습니다.
+따라서 정확한 답변을 위해서는 게임공학과의 정시 모집인원 및 최저기준 등 추가 정보가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.8164123892784119</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看具体的招生标准。根据提供的信息，我们可以参考以下几点来判断：
+1. **成绩要求**：通常情况下，各专业的录取分数线会有所不同。您提到的“3.75”是指国语、数学、英语和探究科目中的平均等级。
+2. **具体专业要求**：
+   - 经营信息学部（ 경영정보학과）在2024年招生中，对于一般学生型（일반학생전형）的要求是：国语 + 数学 + 英语 + 探究科目的标准分数总和。
+3. **具体成绩要求**：
+   - 从您提供的数据来看，经营信息学部的平均等级要求为3.75。这意味着您的成绩需要达到或超过这个标准。
+4. **其他因素**：除了成绩外，还可能有面试、推荐信等其他评估因素。
+根据这些信息，如果您的国语、数学、英语和探究科目的平均等级达到了3.75或者更高，那么您有可能成为经营信息学部的初试合格者。但是具体是否能够被录取还需要参考具体的招生细则和其他附加条件。
+建议您可以访问学校官网或联系招生办公室获取更详细的信息和确认。如果需要进一步的帮助，请提供更多的具体数据或要求。</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.5381941795349121</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部（经管学院）的招生计划和录取标准。
+2. 学生的高考成绩是否满足最低分数线。
+根据提供的表格数据，我们可以看到经营信息学部（经管学院）的相关信息如下：
+- 招生人数：95人
+- 报考人数：160人
+- 竞争比：4:1
+- 国语+数学+综合（2个科目）标准分总和平均值：326.89，标准差：6.92
+假设您提到的“4.2”是指学生的高考成绩为326.89或接近这个分数。那么我们可以进行以下分析：
+1. 从竞争比来看，4:1意味着每4个考生中只有1人能被录取。
+2. 平均标准分总和为326.89，说明大多数考生的成绩应该在这个水平附近。
+根据这些信息，如果您的高考成绩接近或略高于平均值（326.89），那么作为首次注册者是有可能的。但是具体能否成功注册还需要考虑其他因素，如排名、是否满足特定条件等。
+建议您：
+1. 确认自己的高考成绩是否达到该专业的最低录取分数线。
+2. 查看具体的招生简章和录取规则。
+3. 如果不确定，可以联系学校招生办公室进行咨询。
+希望这些信息对您有所帮助！如果您有更多具体问题或需要进一步的信息，请告诉我。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.526627242565155</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. 经营信息学部的一般学生入学标准。
+2. 您提供的成绩（5.33）的具体含义。
+3. 入学考试科目和评分标准。
+根据您提供的信息，我无法直接判断您的成绩是否符合东国大学经营信息学部一般学生入学的标准。以下是需要考虑的一些关键点：
+1. **入学要求**：通常情况下，东国大学的入学要求会包括一定的最低分数限制。但是具体到每个专业和科目可能会有所不同。
+2. **成绩解释**：
+   - 5.33这个数字可能是指您的高考总分或者某个科目的分数。
+   - 高考总分为750分制的话，5.33大约相当于400-450分左右。这通常低于东国大学的录取分数线。
+3. **科目要求**：
+   - 经营信息学部的一般学生入学可能需要考虑语文、数学和英语的成绩。
+   - 从您提供的成绩来看，如果这是高考总分的话，那么您的分数可能不够高。
+4. **参考数据**：根据之前的表格内容，经营信息学部一般学生的录取标准通常包括：
+     - 国语（25%）
+     - 数学（25%）
+     - 英语（25%）
+     - 探讨（25%）
+假设您的成绩是高考总分，并且您在这些科目中的表现都不理想，那么根据目前的信息来看，您可能不符合东国大学经营信息学部一般学生入学的标准。
+建议：
+1. 请确认您的具体分数和科目。
+2. 查看东国大学官方发布的最新招生简章或咨询学校招生办公室以获取最准确的信息。
+3. 如果成绩确实不够理想，可以考虑其他专业或者准备下一年的高考。</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.4547527730464935</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. 您的高考成绩（3.33）是否满足巴油应用工程学部的最低录取分数线。
+2. 您是否有其他可以加分的因素。
+根据提供的信息，巴油应用工程学部（Bio-Application Engineering Department）属于多军（Dajun）类别的一般学生入学考试。对于这类别的大多数专业，成绩计算方法如下：
+\[ \text{总分} = \frac{\text{语文标准分数} + \text{数学标准分数} + \text{英语等级分数}}{2} \]
+假设3.33是指您的高考英语等级分数（即英语等级为3），那么我们需要查看巴油应用工程学部的具体最低录取分数线。
+根据提供的表格信息，巴油应用工程学部的入学要求如下：
+- 一般学生入学考试：国语、数学、英语和科学的标准分加上等第分。
+- 实际上，对于多军类别，没有明确提到具体的最低分数要求。但通常情况下，3.0以上的英语等级是基本要求。
+因此，如果您的其他科目成绩较好，并且总分达到或超过巴油应用工程学部的最低录取分数线（假设为3.5左右），那么理论上您有可能被该专业录取。
+建议：
+1. 查看巴油应用工程学部的具体招生简章和往年录取分数线。
+2. 如果可能，咨询学校招生办公室以获取更准确的信息。
+3. 考虑您的其他科目成绩是否能够弥补英语等级的不足。</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.4696325659751892</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 모집요강을 참고하여 답변 드리겠습니다.
+방사선학과는 정시 모집에서 일반학생전형으로 모집되며, 전형요소 반영비율은 수능 100%입니다. 
+2024년 동의대학교의 수능 성적 반영 방법을 보면:
+- 국어(화법과작문 또는 언어와매체) 25%
+- 수학(확률과통계 또는 미적분 또는 기하) 25%
+- 영어 25%
+- 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+방사선학과는 수능 최저학력기준이 없으므로, 성적이 좋은 경우에 합격 가능성이 있습니다. 하지만 정시 모집의 경쟁률은 매우 높을 것으로 예상됩니다.
+당신의 현재 성적(4.4등급)으로 방사선학과를 지원하는 것은 상대적으로 어려울 수 있습니다. 그러나 다음과 같은 방법들을 고려해보실 수도 있습니다:
+1. 탐구 과목 선택: 사회탐구와 과학탐구 중에서 자신이 더 잘할 것으로 예상되는 과목을 선택하여 성적을 높일 수 있습니다.
+2. 수능 공부 강화: 현재 성적이 4.4등급이라면, 추가로 수능 공부를 집중적으로 하여 성적을 향상시키는 것이 중요합니다.
+3. 다른 전형 탐구: 학생부종합전형 등 다른 전형도 고려해보세요. 
+결론적으로 현재의 성적만으로 방사선학과를 확신할 수는 없지만, 적극적인 준비와 노력이 필요합니다. 정확한 판단을 위해서는 동의대학교 입학처 웹사이트나 전화로 상세히 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6800274848937988</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년도 방사선학과의 정시 모집인원은 5명이며, 최초합격자는 37명 지원자 중 13명으로 경쟁률이 약 2.83입니다.
+정시로 2.66이라는 점수를 가지고 보면:
+1. 경쟁률이 약간 낮아졌습니다 (2.66 &lt; 2.83).
+2. 그러나 여전히 높은 경쟁률을 보이고 있습니다.
+3. 모집인원(5명)과 지원자 수(37명)의 비율로 보면, 충분한 확률이 있는 것은 아닙니다.
+따라서 2.66이라는 점수는 좀 위험할 수 있습니다. 경쟁률이 조금 낮아졌지만 여전히 높은 수준이며, 모집인원에 비해 지원자가 많습니다. 
+추천되는 조치:
+- 다른 전형(학생부종합 등)을 고려해보세요.
+- 추가 학습이나 준비를 통해 점수를 향상시키는 것이 좋을 수 있습니다.
+결론적으로, 2.66은 좀 위험한 점수라고 볼 수 있지만, 확실하게 탈락할 것이라고 단정하기는 어렵습니다. 다른 전략들을 함께 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7436434030532837</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적을 가지고 경찰행정학과의 농어촌학생전형에 지원하셨다면, 합격 가능성은 낮다고 판단됩니다.
+이유는 다음과 같습니다:
+1. 경찰행정학과의 정원외 모집인원이 7명으로 매우 적습니다.
+2. 이전 년도의 최고 점수를 확인해보면:
+   - 2023년: 국어 4.6, 수학 5.8, 영어 4.1, 한국사 4.9 등 평균 4.14
+   - 2022년: 국어 4.7, 수학 5.7, 영어 3.9, 한국사 4.6 등 평균 4.18
+3. 3.66이라는 점수는 이전 년도의 최저점수보다 낮습니다.
+4. 농어촌학생전형은 일반학생전형에 비해 경쟁률이 낮지만, 여전히 경찰행정학과 자체의 수험생들이 많아서 난이도가 높습니다.
+따라서 3.66이라는 점수로는 합격하기 어려울 것으로 보입니다. 하지만 최종 합격 여부는 입학사정관들의 심사 결과에 따라 결정되므로, 서류와 면접에서 좋은 평가를 받는다면 기회는 있을 수 있습니다.
+추천 사항:
+1. 서류 준비에 신경 쓰세요: 농어촌 거주 경력 등 관련 증빙 자료를 철저히 준비하세요.
+2. 면접 준비도 중요합니다: 전공과 관련된 경험, 열정 등을 잘 표현할 수 있도록 준비해보세요.
+합격 가능성을 높이기 위해서는 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.8551279306411743</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 순위가 매우 높은 위치입니다. 그러나 합격 가능성을 완전히 배제할 수는 없습니다. 몇 가지 요인들을 고려해볼 필요가 있습니다:
+1. 모집인원과 지원자 수의 비율: 예비 25번이 나왔다면, 해당 모집단위에서 실제 선발 인원보다 많은 지원자가 있는 것으로 보입니다.
+2. 경쟁률: 전체적인 경쟁률이 매우 높다면, 예비 순위가 낮아질 가능성이 있습니다.
+3. 성적과 전형요소: 수능 성적이 좋고, 다른 전형요소(면접 등)에서도 우수하다면 합격 가능성은 남아 있을 수 있습니다.
+4. 모집단위 특성: 일부 모집단위는 예비 순위가 낮더라도 특별한 이유로 합격할 수 있는 경우도 있습니다.
+5. 충원 절차: 3차 충원까지 진행되므로, 이 과정에서 변동이 있을 수 있습니다.
+결론적으로, 예비 25번이라는 위치는 매우 낮은 확률을 의미하지만, 완전히 배제할 수는 없습니다. 학교의 공지사항과 전형 일정을 철저히 따르며, 필요하다면 추가 지원 자료를 준비해보는 것도 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.7767261266708374</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 정시로 지원하려면 다음과 같은 점수를 고려해야 합니다:
+1. **성적 평균**: 
+   - 일반학생전형 (가군)에서는 국어, 수학, 영어 등급점수와 탐구영역을 반영합니다.
+   - 법경찰행정학부는 사회탐구나 과학탐구를 포함한 탐구영역이 중요할 것입니다.
+2. **예상 성적**:
+   - 국어: 90점 이상
+   - 수학: 85점 이상 (특히 미적분이나 기하)
+   - 영어: 4등급 이상
+   - 탐구영역: 3등급 이상
+3. **예상 등급**:
+   - 국어: 4등급
+   - 수학: 4등급
+   - 영어: 4등급
+   - 탐구: 3등급
+4. **예상 점수**:
+   - 국어 표준점수: 약 105-110점
+   - 수학 표준점수: 약 98-102점 (미적분 또는 기하)
+   - 영어 등급점수: 약 115-123점
+   - 탐구 표준점수: 약 47-55점
+5. **총합**:
+   - 예상 총합 점수: 360-380점 정도
+이러한 성적을 기반으로 하면 안정적인 합격 가능성을 높일 수 있습니다. 하지만 정확한 합격선은 매년 변동되므로, 최신 입학정보를 확인하는 것이 좋습니다.
+추가적으로, 법경찰행정학부는 경쟁률이 높을 것으로 예상되므로, 조금 더 높은 점수를 목표로 설정해두는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7793713212013245</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. 保育·家政咨询学部（阿东学部）的具体录取标准。
+2. 您提供的成绩是否符合该专业的最低要求。
+根据您提供的信息，目前没有直接关于保育·家政咨询学部的详细录取分数线或标准。但是，我们可以参考一些一般性的指导原则：
+1. 从表中的“其他事项”部分可以看到，阿东大学的学生综合评价（学生部）考试中，对于不同类型的高中毕业生有不同的录取标准。
+2. 表格显示，对于普通高中和自主高中毕业生，学生的学科学习成绩占70%，出勤记录占30%。
+假设保育·家政咨询学部的录取标准与这些信息类似：
+- 您的成绩为5.33（等值于韩国高考英语等级6），这在英语科目上可能处于中等偏上的水平。
+- 但是，您没有提供其他科目的成绩。如果您的其他科目成绩也较好，则有可能达到该专业的最低要求。
+建议：
+1. 查看阿东大学官方网站或招生办公室获取保育·家政咨询学部的具体录取标准和分数线。
+2. 如果可能的话，请联系学校招生办公室询问具体的入学要求，特别是对于英语等级5.33的成绩是否足够。
+3. 考虑提供其他相关证明材料以增强申请竞争力。
+综上所述，在没有具体信息的情况下无法确定您能否被保育·家政咨询学部录取。建议直接向阿东大学获取详细信息。</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.4172356724739075</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>从给定的信息来看，关于保育·家庭咨询学专业补充合格者第3次的情况，并没有提供具体的录取分数线或标准。因此很难直接判断您是否有被录取的可能性。
+不过可以考虑以下几个因素来评估您的机会：
+1. 您在预备名单中的位置（预审12号）通常意味着还有其他考生比您更靠前，但并不完全排除被录取的可能。
+2. 一般情况下，补充合格者第3次的机会比较小，因为前面已经有多轮筛选。但如果之前几轮没有足够的人数达到招生计划，那么仍有被录取的可能性。
+3. 您需要关注学校后续发布的公告和通知，特别是关于补充合格者的最终名单发布日期以及如何确认是否被录取的信息。
+4. 保持与学校的沟通，及时了解最新的招生动态。
+5. 如果您有其他优势条件（如特殊才能、社会实践经历等），可以在申请时突出展示，增加竞争力。
+建议密切关注学校官网发布的最新信息，并按照要求完成相关手续。如果有疑问，也可以直接联系学校招生办公室进行咨询。</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2988972663879395</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대다수 고등학교에서는 4.0을 넘는 학생들이 매우 드뭅니다. 따라서 4.75를 받았다면, 해당 성적은 매우 우수한 수준이라고 볼 수 있습니다.
+유아교육학과에 지원할 때 다음과 같은 점들을 고려해야 합니다:
+1. **수능 성적**: 유아교육학과의 경우, 일반적으로 국어와 사회(특히 역사) 영역이 중요합니다. 4.75라는 점수는 이 두 영역에서도 높은 성적이기 때문에 유리한 입니다.
+2. **학생부 평가**: 학생부 평가는 공동체 역량, 학업 역량, 전공 적합성 등 다양한 요소를 종합적으로 평가합니다. 활동 기록이나 사회적 역할을 잘 수행했는지 등을 고려해야 합니다.
+3. **면접 성적**: 면접에서도 유아교육에 대한 이해와 열정, 그리고 교사로서의 자질을 평가받습니다. 준비를 충분히 하여 좋은 인상을 줄 수 있어야 합니다.
+4. **추천서나 자기소개서 등 추가 서류**: 이들 문서는 지원자의 개인적 특성과 목표를 더 잘 보여줄 수 있습니다.
+따라서 4.75라는 성적은 유아교육학과에 충분히 경쟁력을 갖춘 것으로 볼 수 있습니다. 그러나 최종 합격 여부는 여러 요소가综上所述，该考生的4.75分成绩在申请幼儿教育学专业时是有竞争力的。关键在于综合考虑学生的其他方面表现，如学生档案、面试和附加文件等。如果这些方面也能表现出色，那么被录取的可能性是很大的。
+如果有更多具体信息或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.8546127080917358</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동아대학교 정시 모집에서 보육가정상담학과(현재 아동학과)의 경우 다음과 같은 특징을 가지고 있습니다:
+1. **모집인원**: 3명입니다.
+2. **전형요소**:
+   - 학생부교과: 70%
+   - 면접: 30%
+3. **수능최저기준**: 없음
+4. **학생부 교과성적 반영방법**:
+   - 고교 졸업예정자: 1학년 1학기부터 3학년 1학기까지의 성적을 반영
+   - 고교 졸업자: 1학년 1학기부터 3학년 2학기까지의 성적을 반영
+5. **등급 환산**:
+   - 4.16 등급은 상당히 좋은 점수입니다.
+### 합격 가능성 평가:
+- **학생부 교과성적**: 
+  - 4.16 등급은 매우 높은 성적입니다.
+  - 이는 대체로 우수한 학생부를 가리킵니다.
+- **면접**:
+  - 면접 점수는 정확히 알려지지 않았지만, 보통 30%의 비중이므로 좋은 성적이 필요합니다.
+### 종합 평가:
+1. **학생부 교과성적**: 
+   - 4.16 등급은 매우 우수한 성적입니다.
+   - 이는 합격 가능성을 높입니다.
+2. **면접**:
+   - 면접에서도 좋은 점수를 받을 수 있도록 준비해야 합니다.
+### 결론:
+- **합격 가능성**: 상당히 높습니다. 4.16 등급은 매우 우수한 성적이고, 이에 더해 면접에서 좋은 결과를 얻으면 합격 가능성이 큽니다.
+- **추천**:
+  - 면접 준비를 철저히 하세요.
+  - 학생부 교과성적이 이미 높으므로, 다른 평가 요소들도 잘 준비해야 합니다.
+따라서, 4.16 등급을 가지고 보육가정상담학과(아동학과)로 지원한다면 좋은 결과를 기대할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7185510396957397</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합(조기취업형계약학과전형)에서 소프트웨어융합학과는 정원외 모집단위로 운영됩니다. 이 전형의 경우, 평균 등급을 기준으로 하지는 않지만, 일반적으로 경쟁률이 높은 학과일 수 있으므로 다음과 같은 점수를 참고하시면 좋을 것 같습니다:
+1. **전형요소 반영비율**:
+   - 서류(학생부) 60%
+   - 면접 40%
+2. **서류평가 영역 및 배점**:
+   - 공동체역량: 최고 120점
+   - 학업역량: 최고 240점
+   - 전공적합성: 최고 240점
+3. **면접평가 영역 및 배점**:
+   - 학업역량: 최고 180점
+   - 전공적합성: 최고 120점
+일반적으로 경쟁률이 높은 학과에서는 평균 등급이 상대적으로 높아야 합니다. 예를 들어, 수능 성적이 좋은 지원자가 많을 경우, 평균 등급이 4등급 이상이어야 하는 등의 기준이 있을 수 있습니다.
+하지만 정확한 등급 기준은 모집단위와 전형 방식에 따라 다르므로, 본교 입학 홈페이지나 입학처에서 제공하는 자료를 확인하시거나, 직접 입학처로 문의하시는 것이 가장 정확할 것입니다. 또한, 최근 몇 년간의 합격자들의 수능 성적을 참고하여 대략적인 기준을 파악하실 수도 있습니다.
+마지막으로, 이전에 소프트웨어융합학과를 포함한 관련 전공에서 학생부종합(조기취업형계약학과전형)을 통해 합격한 지원자의 수능 성적을 참고하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.5347054004669189</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동일한 모집단위에 대한 정보를 제공해 드리겠습니다.
+1. **면접 점수와 세특(서류평가)의 비중**:
+   - 소프트웨어융합학과는 면접과 서류 평가 모두 중요합니다.
+   - 면접 점수: 40점
+   - 세특(서류평가): 60점
+2. **면접 준비사항**:
+   - 지원동기와 학업계획을 잘 준비해야 합니다.
+   - 학업역량과 전공적합성 관련 공통문항에 대한 답변을 준비합니다.
+   - 기타사항 확인 단계에서는 제출서류 진위 여부를 검증하기 때문에, 서류 내용과 일치하는 답변이 필요합니다.
+3. **서류 준비사항**:
+   - 고교 졸업(예정)자: 학생부 온라인 제공 동의자가 아닌 경우 학생부 1부 제출
+   - 검정고시 출신자: 검정고시 합격증서 사본, 성적증명서, 학교생활기록부 대체 서류(선택)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 성적증명서, 학교생활기록부 대체 서류
+4. **추가 정보**:
+   - 최종 등록자 중 외국고교 졸업예정자는 졸업 후 2024년 2월 16일까지 추가 제출해야 합니다.
+   - 모든 서류는 원본 제출을 원칙으로 하며, 원본 재발급이 불가능한 경우 원본대조필 가능.
+따라서, 소프트웨어융합학과에서는 면접 점수와 세특(서류평가) 모두 중요하게 평가하므로, 양쪽을 잘 준비하는 것이 좋습니다. 특히 서류는 학교생활기록부 내용과 일치하도록 철저히 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.5877647399902344</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 同意大学软件工程学部2024年招生计划中的录取标准。
+2. 您提供的成绩（4.08）与该专业的具体要求是否匹配。
+但是根据您提供的表格数据，我们没有直接看到同意大学软件工程学部的具体录取分数线或标准。不过我们可以参考一些一般性的信息来进行推测：
+1. 从表中可以看到，同意大学软件工程学部的国语 + 数学 + 探究（2个）（加权分包括）的标准转换分数平均值为330.11，标准差为9.08。
+2. 您提供的成绩是4.08。
+通常情况下，如果您的成绩高于或接近该专业的平均录取分数，那么您有可能被录取。但是具体是否能够录取还需要参考具体的招生简章和最终的分数线。
+建议您可以：
+1. 查看同意大学官方网站发布的最新招生简章。
+2. 联系学校招生办公室获取更准确的信息。
+3. 如果可能的话，可以咨询已经申请或了解该专业的学长学姐以获得更多信息。</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.5272312164306641</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>从给定的信息来看，没有直接提到“소프트웨어융합학과”（Software Convergence Department）的具体录取标准或要求。但是我们可以根据其他相关信息进行推断。
+1. **전형 요소 반영 비율**：
+   - 在“학생부종합(조기취업형계약학과전형)”中，提到“서류(학생부)70%+면접30%”。这意味着学生部综合评价占了很大一部分。
+2. **교과성적 반영 방법**：
+   - 一般情况下，学生部成绩（学科学习成绩）在综合评价中的权重较大。如果该专业没有特别说明，可以假设其与“학생부종합(조기취업형계약학과전형)”类似。
+3. **등급 평균 산출**：
+   - 通常情况下，等第平均值（如8个科目中排名前4的等第平均）会被考虑。如果学生部成绩占70%，那么即使单科成绩不是很高，整体平均分达到5等还是有可能被录取。
+综合以上信息，虽然没有直接说明“소프트웨어융합학과”的具体要求，但根据类似专业的录取标准推断：
+- 如果该专业在学生部综合评价中占较大比重（70%），并且其他科目成绩较好或有较高的面试表现，则5等的平均分是有可能被录取的。
+建议：
+1. **详细查看该专业的具体招生简章**：如果有更详细的说明会更有帮助。
+2. **咨询学校招生办公室**：直接询问具体的录取标准和要求，以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.7256138920783997</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 확실한 합격은 어려울 것으로 보입니다.
+이유는 다음과 같습니다:
+1. **전형 유형**: 신소재공학과는 일반적으로 수능 위주로 전형을 진행하며, 동의대학교에서도 수능 성적을 중요하게 반영합니다.
+2. **수능 최저 기준**: 동의대학교의 경우, 신소재공학과는 대체로 높은 수능 최저 기준을 요구합니다. 4.28이라는 점수는 평균 이상이지만, 대부분의 모집단위에서는 4.5 이상을 요구하기도 합니다.
+3. **경쟁률**: 신소재공학과는 인기가 많아 경쟁률이 높습니다. 이 때문에 낮은 점수로 합격하는 경우는 드뭅니다.
+4. **전형 요소**: 실기나 면접 등 다른 전형 요소가 반영되는 경우도 있으므로, 단순히 수능 성적만으로 판단하기 어렵습니다.
+추천 사항:
+1. **추가 지원**: 다른 대학이나 학과를 추가로 지원하여 보다 안전한 입학을 준비하는 것이 좋습니다.
+2. **면접 및 실기 준비**: 만약 면접이나 실기가 포함되어 있다면, 충분히 준비해보세요.
+3. **재수 시도**: 수능 성적이 조금 낮더라도 재수를 고려해볼 수도 있습니다.
+결론적으로 4.28이라는 점수로는 확실한 합격을 기대하기 어렵지만, 노력하면 가능성을 열어두는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.616821825504303</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능(일반학생전형)에서는 자기소개서 제출이 필요하지 않습니다. 
+주요 절차와 요구사항은 다음과 같습니다:
+1. 지원자는 학생부, 성적 증명서 등 기본 서류만 준비하면 됩니다.
+2. 자기소개서는 필수 항목이 아닙니다. 
+3. 주요 평가 요인으로는 수능 점수와 학교생활기록부 등이 있습니다.
+4. 지원자는 수능 성적과 학교생활을 잘 반영한 서류만 준비하면 됩니다.
+5. 자기소개서 대신에, 지원자의 학업역량이나 전공 적합성 등을 보여줄 수 있는 추가 자료를 포함시킬 수도 있습니다.
+따라서 수능 일반학생전형에서는 자기소개서 작성은 필요하지 않습니다. 기본 서류만 준비하고 수능 점수와 학교생활기록부를 잘 준비하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.6557700037956238</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능 정시 산출 점수가 4.5인 경우, 추가 모집 가능성은 다음과 같이 판단될 수 있습니다:
+1. **정시 모집 상태 확인**: 현재 모집 상태와 남아 있는 모집 인원을 확인해야 합니다. 일부 학과나 전형에서 추가 모집이 이루어질 수 있습니다.
+2. **모집 단위별 정원**: 각 학과의 정원 내에서 여전히 공간이 있는지 확인해야 합니다. 일부 학과는 이미 정원을 채워서 더 이상 지원할 수 없는 경우도 있습니다.
+3. **성적 경쟁률**: 현재 모집 인원 대비 지원자의 성적이 어느 정도인지 파악해야 합니다. 4.5라는 점수는 상대적으로 낮은 편이므로, 경쟁률이 높다면 추가 모집에 당첨될 가능성은 낮을 수 있습니다.
+4. **추가 모집 정보**: 동의대학교 입학 홈페이지나 입학처에서 추가 모집 관련 공지를 확인해야 합니다. 추가 모집이 이루어질 경우 해당 학과와 전형에 대한 자세한 정보를 얻을 수 있습니다.
+5. **기타 지원 방법**: 일부 학과에서는 실기, 면접 등 다른 평가 요소를 통해 입학자를 선발하기도 하므로, 추가 모집에서 이들 요소를 활용할 수도 있습니다.
+결론적으로 4.5라는 점수로는 추가 모집에 당첨될 가능성은 낮지만, 정확한 답변을 위해서는 동의대학교 입학 홈페이지나 입학처와 직접 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8349968194961548</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신소재공학과(신소재공학과, 분자나노공학과)는 다군 수능(일반학생전형)으로 모집됩니다. 
+다군 수능(일반학생전형)의 경우, 전형요소 반영비율은 다음과 같습니다:
+- 국어 (화법과작문 또는 언어와매체) 25%
+- 수학 (확률과통계 또는 미적분 또는 기하) 25%
+- 영어 25%
+- 탐구 (사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+수능 최저기준은 표시되어 있지 않으므로, 이전년도의 수능 성적을 참고해야 합니다. 
+2023년도 동의대학교 신소재공학과의 수능 최저 기준을 확인해보면:
+- 국어: 105점 이상
+- 수학: 98점 이상 (미적분 또는 기하)
+- 영어: 4등급 이상
+따라서, 2024년도에도 비슷한 수준의 점수를 얻어야 합격 가능할 것으로 예상됩니다. 하지만 정확한 최저기준은 입학처에서 공지하는 정보를 확인해야 합니다.
+결론적으로, 신소재공학과에 지원하려면 국어 105점 이상, 수학(미적분 또는 기하) 98점 이상, 영어 4등급 이상의 성적이 필요할 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7119066119194031</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 신소재공학과의 최종 합격평균 점수가 448점으로 기록되어 있습니다. 작년에 비해 1점 정도 높은 점수를 받으려면 다음과 같은 요인들을 고려해야 합니다:
+1. 모집정원 및 지원자 수 변화: 작년과 올해의 모집정원이나 지원자 수가 달라졌다면 이로 인한 경쟁률 변동이 있을 수 있습니다.
+2. 전형방법 변경 여부: 동일한 전형방법을 유지했는지 확인해야 합니다. 만약 다른 전형요소를 반영하는 방식으로 변경되었다면 평균 점수가 달라질 수 있습니다.
+3. 수능 성적 변동: 전체 지원자의 수능 성적이 작년보다 높아졌다면 이로 인해 합격선이 상승할 수 있습니다.
+4. 특별전형 비중 변화: 다른 전형방법(예: 실기/실적, 면접 등)의 비중이 달라졌다면 평균 점수가 변동될 수 있습니다.
+5. 입학사정관 심사 영향: 일부 학과에서는 입학사정관 심사가 큰 역할을 하므로 이에 따른 변화도 고려해야 합니다.
+6. 교직과정 여부: 해당 학과에서 교직 과정이 개설되었는지 확인해야 합니다.
+7. 기타 요인: 코로나19 등 외부적 요인이 입학전형에 영향을 미쳤다면 이를 고려해야 합니다.
+결론적으로, 작년보다 1점 정도 높은 점수를 받는 것은 가능하지만 확실한 보장은 아닙니다. 정확한 예측을 위해서는 동의대학교 입학처나 공식 홈페이지에서 최신 정보를 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.7435503005981445</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급의 성적이면 신소재공학과(신소재공학과, 고분자나노공학과)에 합격할 확률은 상대적으로 낮지만, 아직 최종적인 결과는 수능 실적을 포함한 전형성적 산출 후 결정됩니다.
+신소재공학과의 경우, 일반학생전형 모집단위의 성적 기준을 보면:
+- 국어 + 수학 + 탐구(2개) 표준점수 합산
+- 가산점이 적용될 수 있음 (수학 미적분/기하 응시자)
+4.3등급은 100점 만점에서 약 60점대 중반 정도의 점수를 의미합니다. 이 점수만으로는 경쟁력이 떨어질 수 있지만, 다음과 같은 요소들이 합격 가능성에 영향을 줄 수 있습니다:
+1. **전형성적 산출**: 실제 수능 성적이 발표되고, 전형성적이 계산되면 4.3등급만으로는 낮은 점수를 받을 가능성이 높습니다.
+2. **가산점**: 수학 미적분/기하 응시자에게 가산점이 적용될 경우, 성적이 조금 더 높아질 수 있습니다.
+3. **교과성적**: 고등학교 교과 성적이 좋다면 이는 긍정적으로 작용할 수 있습니다.
+4. **추천서 및 자기소개서 등 서류평가 영역**: 좋은 추천서나 자기소개서가 있다면, 서류평가에서 높은 점수를 받을 가능성이 있습니다.
+5. **면접 성적**: 면접에서도 좋은 성적이 나온다면 이는 합격에 도움이 될 수 있습니다.
+따라서, 현재 상황만으로 판단하기에는 어렵습니다. 실제 수능 성적과 전형성적 산출 결과를 확인한 후 최종적인 판단을 내리는 것이 좋겠습니다. 
+추가적으로, 동의대학교 입학 홈페이지나 입학처에 문의하여 가장 정확한 정보와 조언을 받는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.8167393803596497</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要了解一些具体信息：
+1. 您是参加哪一年的高考？因为每年的分数线可能会有所不同。
+2. 您的具体成绩是多少？
+不过，我可以根据一般情况提供一些参考信息。以东国大学人工智能学部为例（虽然您没有明确指出是哪个学校），其在不同年份的人工智能学部招生分数如下：
+- 2021年：120分
+- 2022年：45分
+请注意，这些数字仅供参考，并不代表实际录取分数线。具体分数会根据当年考生的整体水平和招生计划有所变化。
+如果您能提供更详细的信息（如具体的高考年份和个人成绩），我可以给出更加准确的建议或分析是否有可能被该专业录取。</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.3431568741798401</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. 您的具体成绩：5.27是什么意思？是某个特定科目的分数还是综合评分？
+2. 目标专业的录取标准和往年数据。
+3. 各个专业具体的招生计划。
+根据您提供的信息，我无法直接判断您的成绩是否能够被东国大学（假设这是“东国大学”）的某个专业录取。因为：
+1. 您的成绩5.27没有明确说明是哪个科目的分数或综合评分。
+2. 东国大学的具体录取标准和往年数据没有提供。
+3. 不同专业的招生计划也会影响录取结果。
+建议您：
+- 查看目标专业的具体录取要求，包括最低分数线、平均分等信息。
+- 参考往年的录取情况，了解实际的录取分数范围。
+- 考虑是否还有其他因素（如面试表现、推荐信等）可能影响录取结果。
+如果您能提供更多详细信息，我可以帮助您进行更具体的分析。</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.406349778175354</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 등급으로 보이는데, 동의대학교 소프트웨어공학부에 지원하려면 정시 모집군과 관련된 정보가 필요합니다.
+1. **정시 모집군 확인**: 먼저 해당 학과가 어느 정시 모집군(가군, 나군, 다군 등)에 속하는지 확인해야 합니다. 이 정보는 동의대학교 입학처 웹사이트나 공식 안내서에서 찾을 수 있습니다.
+2. **정시 최저학력기준**: 각 모집군별로 정시 모집군의 최저학력기준이 다르므로, 해당 학과가 속한 모집군의 최저학력기준을 확인해야 합니다. 예를 들어, 가군은 수능 위주이고 나군은 실기/실적 위주일 수 있습니다.
+3. **성적 평균 및 등급**: 동의대학교 소프트웨어공학부의 전형요소 반영비율과 성적 평균 등을 확인해야 합니다. 예를 들어, 해당 학과가 실기/실적 위주의 모집군이라면 실기 점수와 수능 점수가 어떻게 반영되는지 중요합니다.
+4. **경쟁률**: 동의대학교 소프트웨어공학부의 경쟁률을 확인하여 자신의 성적이 어느 정도 위치에 있는지를 파악할 수 있습니다.
+5. **최종 등록자 성적 분석**: 최종 등록자의 성적을 분석하여 자신이 얼마나 높은 위치에 있는지 판단할 수 있습니다.
+만약 정시 모집군이 가군이라면, 4.2의 등급은 상대적으로 좋은 점수일 수 있지만, 경쟁률과 최저학력기준 등을 고려해야 합니다. 나군이나 다군이라면 실기 점수가 더 중요할 수 있습니다.
+따라서 정확한 답변을 드리기 위해서는 동의대학교 소프트웨어공학부가 속한 정시 모집군과 관련된 정보를 확인하시고, 해당 정보를 바탕으로 판단해야 합니다. 필요하다면 동의대학교 입학처에 직접 문의하거나 공식 홈페이지를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6055580377578735</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下信息：
+1. 化学环境工程系的一般学生录取标准是什么？
+2. 成绩计算方法是否与提供的成绩相匹配？
+根据您提供的表格内容，“化学环境工程部”属于“工科大学”，其一般学生录取的最低人数为36人。从给出的成绩来看，3.92是一个相对较高的分数。
+但是，具体能否被录取还需要看以下几点：
+1. **成绩计算方法**：您提供的成绩是3.92，但没有明确说明这是按照哪种方式计算的（例如是否包括了加权因素、科目选择等）。如果这个成绩是按照标准的加权平均分计算的，并且符合化学环境工程部的一般学生录取要求，则有可能被录取。
+2. **具体录取分数线**：不同年份和批次可能会有不同的录取分数线，需要查看具体的招生简章或历年录取数据来确定今年的具体分数线。
+3. **其他因素**：除了成绩外，还可能有其他因素影响录取结果，如面试表现、特长等。
+综上所述，仅凭您提供的信息（3.92的成绩），无法直接判断是否能被化学环境工程部的一般学生项目录取。建议查看该系的具体招生简章或历年录取数据以获取更准确的信息，并确认成绩计算方法是否符合要求。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.4622112512588501</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 화학환경공학부에 지원하시려면, 수능(일반학생전형)과 실기/실적(일반학생전형) 두 가지 전형이 있습니다. 
+1. **수능(일반학생전형)**:
+   - 이 전형에서는 수능 성적이 주요 평가 기준입니다.
+   - 화학환경공학부는 공학 계열로, 수능 반영 영역은 국어, 수학, 영어, 탐구 영역 중 상위 3개 영역의 표준점수 및 등급 점수를 합산한 점수를 사용합니다.
+   - 수능 최저 기준이 없으므로, 성적이 높을수록 유리합니다.
+2. **실기/실적(일반학생전형)**:
+   - 이 전형에서는 실기고사 성적이 주요 평가 기준입니다.
+   - 화학환경공학부는 환경공학과, 화학공학과, 응용화학과로 구성되어 있으며, 실기/실적 위주 전형으로 분류됩니다.
+당신의 동의대식 정시 성적이 4.25라면, 이는 수능(일반학생전형)에 충분히 경쟁력이 있을 것으로 보입니다. 하지만 최종 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+- **수능 성적**: 화학환경공학부의 모집단위별 수능 반영 비율과 가산점을 고려해야 합니다.
+- **모집인원 및 지원자 수**: 각 모집단위의 모집 인원과 지원자의 수에 따라 경쟁률이 달라질 수 있습니다.
+- **전형요소**: 서류평가, 면접 등 다른 평가 요소도 고려해야 합니다.
+따라서, 정확한 합격 가능성 판단을 위해서는 동의대학교 입학처 홈페이지나 전화로 확인하는 것이 좋습니다. 또한, 모집단위별 수능 최저 기준이나 전형요소 반영 비율 등을 확인하여 더 자세한 정보를 얻으시기 바랍니다.
+추가적으로, 실기/실적 위주 전형도 고려해보는 것도 좋은 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.7199125289916992</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수를 정확히 이해하기 위해서는 몇 가지 정보가 필요합니다:
+1. 해당 단과대학 및 모집단위의 전형방법을 확인해야 합니다.
+2. 영화학과의 전형요소와 비율을 파악해야 합니다 (예: 서류 70%, 면접 30% 등).
+3. 지원자의 성적 점수를 해당 단과대학의 평균 및 경쟁률과 비교해야 합니다.
+일반적으로 정시 수능성적이 4.2는 상당히 낮은 점수입니다. 대부분의 대학에서는 4.5 이상이 필요합니다. 그러나 영화학과는 실기나 면접 비중이 높을 수 있으므로, 성적 외 요소가 중요할 수 있습니다.
+추천 사항:
+1. 지원자의 서류와 면접 준비를 철저히 하세요.
+2. 학교생활에서의 활동과 경험을 잘 기재하세요.
+3. 면접 시 자신감을 보여주세요.
+최종적으로는 해당 단과대학 및 모집단위의 전형방법과 평균 성적 등을 확인하여 결정해야 합니다. 현재 정보만으로는 정확한 답변이 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.7204043865203857</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文翻译：
+나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 면접평가의 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타사항 확인 (서류평가 시 작성된 면접질문지를 활용하여 제출서류 진위여부 검증)
+면접은 개별적으로 이루어지며, 평균 10분 이내로 진행됩니다. 두 명 이상의 입학사정관이 평가위원으로 참여하여 수험생을 대상으로 개별적인 정성적이고 종합적인 평가를 실시합니다.
+此外，对于“나군 학생부종합(조기취업형계약학과전형)”的面试流程，也有类似的步骤：
+1. 在候考室等待
+2. 个人信息确认
+3. 移动到考场前
+4. 进入考场
+5. 发表个人动机和学业计划
+6. 讨论与学业能力、专业适应性相关的共同问题并回答提问
+7. 其他事项确认（使用书面面试问题检查提交文件的真实性）
+对于“多军(一般学生型)”的面试流程，步骤也基本相同。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8867512941360474</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7973878154158592</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7663350045681</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.711498007774353</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7818614099919796</v>
+      <c r="D305" t="n">
+        <v>0.7584069425861041</v>
       </c>
     </row>
   </sheetData>
